--- a/data/IMACLIM_equivalent/ofce_equivalent.xlsx
+++ b/data/IMACLIM_equivalent/ofce_equivalent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
